--- a/A4 - Time tables/database-09-feb-2018/sa.xlsx
+++ b/A4 - Time tables/database-09-feb-2018/sa.xlsx
@@ -41,54 +41,108 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="871">
   <si>
+    <t xml:space="preserve">Input csv: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slot-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slot-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make daywise merge files. Which will then have all entries as rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pandas will be useful to generate the sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As using C is not a compulsion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And extend the dates column appropriately</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location might need manual work, can make a dict though</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final format : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">slot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">division</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(only for Institute level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Do not forget to separate these sheets into individual csvs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Two types of formats found : Weekday-based and Slot-based
 The weekday-based needs to be checked once for conflict of slot change (esp in ME, which was visually seen)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Input csv: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slot-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slot-B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T</t>
+    <t xml:space="preserve">My Queries when this completes - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What’s the busiest and freest academic hour?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calc free times for each venue</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -100,72 +154,27 @@
     <t xml:space="preserve">A course can happen at multiple location at same time, e.g Tutorial courses Slot A</t>
   </si>
   <si>
-    <t xml:space="preserve">c4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Some courses have slots, but venue undecided e.g. BSBE open electives</t>
   </si>
   <si>
     <t xml:space="preserve">Institute courses mentioned on dept pdf are ignored, they will be picked from institute pdf only</t>
   </si>
   <si>
-    <t xml:space="preserve">Make daywise merge files. Which will then have all entries as rows</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pandas will be useful to generate the sql</t>
-  </si>
-  <si>
     <t xml:space="preserve">Institute Levels</t>
   </si>
   <si>
     <t xml:space="preserve">Make single sheet for institute levels as they are less in number</t>
   </si>
   <si>
-    <t xml:space="preserve">As using C is not a compulsion</t>
-  </si>
-  <si>
     <t xml:space="preserve">These strictly stick to the slot given. Can use special code for this</t>
   </si>
   <si>
     <t xml:space="preserve">Make the "SlotBased" sheet for above</t>
   </si>
   <si>
-    <t xml:space="preserve">And extend the dates column appropriately</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location might need manual work, can make a dict though</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final format : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">slot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">course</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">division</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(only for Institute level)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Special cases :</t>
   </si>
   <si>
-    <t xml:space="preserve">*Do not forget to separate these sheets into individual csvs</t>
-  </si>
-  <si>
     <t xml:space="preserve">PH needs color decoding for venues ! - But fortunately they consistently follow a pattern - Red Green Blue Black</t>
   </si>
   <si>
@@ -179,9 +188,6 @@
   </si>
   <si>
     <t xml:space="preserve">** A Conflict/Typo found in ME - In 12-1 slots at 1203, ME 654 and ME 554 both place, taking ME 554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My Queries when this completes - </t>
   </si>
   <si>
     <t xml:space="preserve">** Incompatibility: DD doesn’t have a pattern of classes PER WEEK,
@@ -190,14 +196,8 @@
 As the Queries in Asgn 2 also get conflicted because of this, I’ll first run my code without DD</t>
   </si>
   <si>
-    <t xml:space="preserve">What’s the busiest and freest academic hour?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ignored the “(other than Tuesday
 8-8:55) [Institute]”, "except Monday 5-5:55" filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calc free times for each venue</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -2830,286 +2830,322 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="20.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="D9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="C10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="0" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="0" t="s">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="0" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="0" t="s">
+      <c r="F17" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="G17" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="H17" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J15" s="0" t="s">
+      <c r="I17" s="0" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="282.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="451.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="125.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3136,9 +3172,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="5" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,8 +4425,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,7 +4435,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>548</v>
@@ -4899,10 +4932,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>620</v>
@@ -5006,7 +5039,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>641</v>
@@ -5023,7 +5056,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>644</v>
@@ -5045,7 +5078,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>644</v>
@@ -5083,9 +5116,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5103,7 +5134,7 @@
         <v>647</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>648</v>
@@ -5342,7 +5373,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5358,7 +5389,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>656</v>
@@ -6178,7 +6209,7 @@
         <v>724</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>725</v>
@@ -6924,7 +6955,7 @@
         <v>442</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8303,10 +8334,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>51</v>
@@ -8923,10 +8954,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>51</v>
@@ -8960,7 +8991,7 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>869</v>
@@ -8972,7 +9003,7 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>869</v>
@@ -8994,7 +9025,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9044,10 +9075,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>168</v>
@@ -9620,10 +9651,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>54</v>
@@ -10151,10 +10182,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>53</v>
@@ -10667,10 +10698,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>52</v>
@@ -11187,7 +11218,7 @@
         <v>242</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13465,7 +13496,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>416</v>
@@ -13739,10 +13770,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>3</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>430</v>
@@ -13884,7 +13915,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="9" t="n">
         <v>3101</v>
@@ -14072,7 +14103,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="9" t="n">
         <v>4101</v>
@@ -14349,7 +14380,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36" s="9" t="n">
         <v>2202</v>

--- a/A4 - Time tables/database-09-feb-2018/sa.xlsx
+++ b/A4 - Time tables/database-09-feb-2018/sa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Rough" sheetId="1" state="visible" r:id="rId2"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2642" uniqueCount="870">
   <si>
     <t xml:space="preserve">Input csv: </t>
   </si>
@@ -1292,43 +1292,40 @@
     <t xml:space="preserve">I&amp;III</t>
   </si>
   <si>
-    <t xml:space="preserve">Class Timetable (Slots)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8-8:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9-9:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10-10:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-11:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12-12:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-1:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-2:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-3:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-4:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-5:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I(12-1:25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L(5-6:25)</t>
+    <t xml:space="preserve">8:00-8:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:00-9:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00-10:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00-11:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00-12:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00-1:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00-2:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:00-3:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00-4:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00-5:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00-1:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00-6:25</t>
   </si>
   <si>
     <t xml:space="preserve">Department of Electronics and Electrical Engineering, IIT Guwahati</t>
@@ -2667,7 +2664,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2694,6 +2691,11 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2755,7 +2757,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2796,15 +2798,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2832,13 +2838,13 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="C1:N1 B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="20.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="20.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3165,7 +3171,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C30" activeCellId="0" sqref="C30"/>
+      <selection pane="topLeft" activeCell="C30" activeCellId="1" sqref="C1:N1 C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3176,178 +3182,178 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="D1" s="11" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="12" t="n">
+        <v>4102</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="11" t="n">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="12" t="n">
         <v>4102</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="11" t="n">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12" t="n">
         <v>4102</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="11" t="n">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="12" t="n">
         <v>4102</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="12" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="11" t="n">
-        <v>4102</v>
-      </c>
-      <c r="D5" s="11" t="s">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="12" t="n">
+        <v>4207</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="11" t="n">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="12" t="n">
         <v>4207</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D7" s="12" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="11" t="n">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="12" t="n">
         <v>4207</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D8" s="12" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="11" t="n">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="12" t="n">
         <v>4207</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="11" t="n">
-        <v>4207</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="12" t="n">
         <v>4210</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>452</v>
+      <c r="D10" s="12" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C11" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="11" t="n">
+      <c r="C12" s="12" t="n">
         <v>4207</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>453</v>
+      <c r="D12" s="12" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
@@ -3355,10 +3361,10 @@
       <c r="A14" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
@@ -3366,24 +3372,24 @@
       <c r="A15" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <v>4207</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>454</v>
+      <c r="D15" s="12" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
@@ -3391,10 +3397,10 @@
       <c r="A17" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
@@ -3402,74 +3408,74 @@
       <c r="A18" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="12" t="n">
         <v>4210</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>455</v>
+      <c r="D18" s="12" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="12" t="n">
         <v>4207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="12" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="B20" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C20" s="11" t="n">
+    </row>
+    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="12" t="n">
         <v>4210</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>458</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>4210</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
@@ -3477,24 +3483,24 @@
       <c r="A24" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="12" t="n">
         <v>4207</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>460</v>
+      <c r="D24" s="12" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="12" t="n">
         <v>4207</v>
       </c>
     </row>
@@ -3502,10 +3508,10 @@
       <c r="A26" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C26" s="11" t="n">
+      <c r="C26" s="12" t="n">
         <v>4207</v>
       </c>
     </row>
@@ -3513,10 +3519,10 @@
       <c r="A27" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C27" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
@@ -3524,10 +3530,10 @@
       <c r="A28" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="11" t="n">
+      <c r="C28" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
@@ -3535,10 +3541,10 @@
       <c r="A29" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="12" t="n">
         <v>4210</v>
       </c>
     </row>
@@ -3546,39 +3552,39 @@
       <c r="A30" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3606,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+      <selection pane="topLeft" activeCell="D44" activeCellId="1" sqref="C1:N1 D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3610,100 +3616,100 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>474</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="L4" s="9" t="n">
         <v>4201</v>
@@ -3711,25 +3717,25 @@
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="J5" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="9" t="s">
         <v>498</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>499</v>
       </c>
       <c r="L5" s="9" t="n">
         <v>3102</v>
@@ -3737,28 +3743,28 @@
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="L6" s="9" t="n">
         <v>4208</v>
@@ -3766,16 +3772,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>510</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>511</v>
       </c>
       <c r="L7" s="9" t="n">
         <v>4205</v>
@@ -3783,10 +3789,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>512</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>513</v>
       </c>
       <c r="L8" s="9" t="n">
         <v>4211</v>
@@ -3794,15 +3800,15 @@
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L10" s="9" t="n">
         <v>4001</v>
@@ -3810,66 +3816,66 @@
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="D11" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="H12" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="J12" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>492</v>
       </c>
       <c r="L12" s="9" t="n">
         <v>4201</v>
@@ -3877,25 +3883,25 @@
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="L13" s="9" t="n">
         <v>3102</v>
@@ -3903,28 +3909,28 @@
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>532</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>533</v>
       </c>
       <c r="L14" s="9" t="n">
         <v>4208</v>
@@ -3932,16 +3938,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L15" s="9" t="n">
         <v>4205</v>
@@ -3949,16 +3955,16 @@
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>513</v>
-      </c>
       <c r="J16" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L16" s="9" t="n">
         <v>4211</v>
@@ -3966,15 +3972,15 @@
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="L17" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L18" s="9" t="n">
         <v>4001</v>
@@ -3982,57 +3988,57 @@
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="E19" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>482</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J19" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L20" s="9" t="n">
         <v>4201</v>
@@ -4040,22 +4046,22 @@
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="I21" s="9" t="s">
+      <c r="J21" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="L21" s="9" t="n">
         <v>3102</v>
@@ -4063,19 +4069,19 @@
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>4208</v>
@@ -4083,21 +4089,21 @@
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L24" s="9" t="n">
         <v>4205</v>
@@ -4105,16 +4111,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D25" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L25" s="9" t="n">
         <v>4211</v>
@@ -4122,60 +4128,60 @@
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="D26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>520</v>
-      </c>
       <c r="I26" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="H27" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>525</v>
       </c>
       <c r="L27" s="9" t="n">
         <v>4201</v>
@@ -4183,25 +4189,25 @@
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E28" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>529</v>
-      </c>
       <c r="K28" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="L28" s="9" t="n">
         <v>3102</v>
@@ -4209,16 +4215,16 @@
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E29" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>532</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>533</v>
       </c>
       <c r="L29" s="9" t="n">
         <v>4208</v>
@@ -4226,18 +4232,18 @@
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L31" s="9" t="n">
         <v>4205</v>
@@ -4245,10 +4251,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F32" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L32" s="9" t="n">
         <v>4211</v>
@@ -4256,60 +4262,60 @@
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="E33" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="I33" s="9" t="s">
+      <c r="J33" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>484</v>
-      </c>
       <c r="K33" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="L33" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="L33" s="9" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>525</v>
-      </c>
       <c r="J34" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="L34" s="9" t="n">
         <v>4201</v>
@@ -4317,25 +4323,25 @@
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="E35" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="I35" s="9" t="s">
+      <c r="J35" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>497</v>
       </c>
       <c r="L35" s="9" t="n">
         <v>3102</v>
@@ -4343,19 +4349,19 @@
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I36" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>505</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>506</v>
       </c>
       <c r="L36" s="9" t="n">
         <v>4208</v>
@@ -4363,15 +4369,15 @@
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L38" s="9" t="n">
         <v>4205</v>
@@ -4379,7 +4385,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L39" s="9" t="n">
         <v>4211</v>
@@ -4387,15 +4393,15 @@
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="L40" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L41" s="9" t="n">
         <v>4001</v>
@@ -4420,7 +4426,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="1" sqref="C1:N1 D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4430,7 +4436,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4438,13 +4444,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>549</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4455,10 +4461,10 @@
         <v>51</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>550</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4469,10 +4475,10 @@
         <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,10 +4489,10 @@
         <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>554</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,10 +4503,10 @@
         <v>54</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>556</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,10 +4517,10 @@
         <v>55</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,10 +4531,10 @@
         <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,10 +4545,10 @@
         <v>59</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>562</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,10 +4559,10 @@
         <v>58</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4567,10 +4573,10 @@
         <v>57</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4581,10 +4587,10 @@
         <v>56</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,10 +4601,10 @@
         <v>168</v>
       </c>
       <c r="C13" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4609,10 +4615,10 @@
         <v>54</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>572</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,10 +4629,10 @@
         <v>51</v>
       </c>
       <c r="C15" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>574</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4637,10 +4643,10 @@
         <v>52</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>576</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4651,10 +4657,10 @@
         <v>262</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,10 +4671,10 @@
         <v>57</v>
       </c>
       <c r="C18" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>580</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4679,10 +4685,10 @@
         <v>58</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>582</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4693,10 +4699,10 @@
         <v>59</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4707,10 +4713,10 @@
         <v>60</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4721,10 +4727,10 @@
         <v>57</v>
       </c>
       <c r="C22" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>588</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4735,10 +4741,10 @@
         <v>58</v>
       </c>
       <c r="C23" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,10 +4755,10 @@
         <v>171</v>
       </c>
       <c r="C24" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>592</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4763,10 +4769,10 @@
         <v>55</v>
       </c>
       <c r="C25" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>594</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4777,10 +4783,10 @@
         <v>60</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>596</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4791,10 +4797,10 @@
         <v>55</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4805,10 +4811,10 @@
         <v>59</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>600</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4819,10 +4825,10 @@
         <v>53</v>
       </c>
       <c r="C29" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>602</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,66 +4839,66 @@
         <v>253</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>604</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>608</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C32" s="9" t="s">
-        <v>612</v>
-      </c>
       <c r="D32" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>607</v>
-      </c>
       <c r="C33" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -4914,7 +4920,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="C1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4924,10 +4930,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>618</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,71 +4944,71 @@
         <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>620</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="9" t="s">
         <v>639</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,16 +5048,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>641</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>643</v>
-      </c>
       <c r="K6" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5059,21 +5065,21 @@
         <v>14</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,7 +5087,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5089,7 +5095,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -5111,7 +5117,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="C1:N1 D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5121,46 +5127,46 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D2" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>649</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>651</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="9" t="n">
         <v>1101</v>
@@ -5197,7 +5203,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B6" s="9" t="n">
         <v>1101</v>
@@ -5234,7 +5240,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B8" s="9" t="n">
         <v>1101</v>
@@ -5271,7 +5277,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B10" s="9" t="n">
         <v>1101</v>
@@ -5308,7 +5314,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B12" s="9" t="n">
         <v>1101</v>
@@ -5345,7 +5351,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B14" s="9"/>
     </row>
@@ -5368,7 +5374,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C1:N1 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5378,13 +5384,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C1" s="9" t="n">
         <v>2018</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,39 +5398,39 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>657</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>658</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>661</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>663</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>51</v>
@@ -5454,7 +5460,7 @@
         <v>59</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5462,13 +5468,13 @@
         <v>4206</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>669</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5476,7 +5482,7 @@
         <v>4003</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>128</v>
@@ -5485,7 +5491,7 @@
         <v>129</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,13 +5508,13 @@
         <v>133</v>
       </c>
       <c r="G6" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>673</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>674</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5519,7 +5525,7 @@
         <v>137</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5527,19 +5533,19 @@
         <v>4004</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>678</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>678</v>
-      </c>
       <c r="J8" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5562,7 +5568,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>168</v>
@@ -5592,7 +5598,7 @@
         <v>60</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5604,13 +5610,13 @@
         <v>199</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E11" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>681</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,13 +5625,13 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>201</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>129</v>
@@ -5637,19 +5643,19 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>685</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>686</v>
-      </c>
       <c r="J13" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,22 +5663,22 @@
         <v>4212</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>687</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>688</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>140</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,24 +5686,24 @@
         <v>4004</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>208</v>
       </c>
       <c r="J15" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>54</v>
@@ -5727,7 +5733,7 @@
         <v>171</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5735,10 +5741,10 @@
         <v>4206</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>199</v>
@@ -5752,19 +5758,19 @@
         <v>201</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>694</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>683</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>695</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>129</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5775,7 +5781,7 @@
         <v>133</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>203</v>
@@ -5784,16 +5790,16 @@
         <v>132</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,13 +5810,13 @@
         <v>208</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>205</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>141</v>
@@ -5830,24 +5836,24 @@
         <v>4003</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>53</v>
@@ -5888,10 +5894,10 @@
         <v>199</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,16 +5908,16 @@
         <v>128</v>
       </c>
       <c r="D24" s="9" t="s">
+        <v>703</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>704</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>705</v>
-      </c>
       <c r="I24" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,13 +5934,13 @@
         <v>133</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5942,13 +5948,13 @@
         <v>4212</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>137</v>
@@ -5960,10 +5966,10 @@
         <v>206</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5971,38 +5977,38 @@
         <v>4003</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>52</v>
@@ -6037,10 +6043,10 @@
         <v>4206</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,13 +6054,13 @@
         <v>4003</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,22 +6071,22 @@
         <v>132</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>131</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6091,16 +6097,16 @@
         <v>137</v>
       </c>
       <c r="D33" s="9" t="s">
+        <v>711</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>712</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>713</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>206</v>
@@ -6111,12 +6117,12 @@
         <v>4004</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="9" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6124,13 +6130,13 @@
         <v>4206</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="9" t="s">
         <v>715</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6138,13 +6144,13 @@
         <v>4003</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>716</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>717</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,13 +6158,13 @@
         <v>4004</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>719</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6166,7 +6172,7 @@
         <v>4212</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -6188,7 +6194,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="topLeft" activeCell="C39" activeCellId="1" sqref="C1:N1 C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6198,24 +6204,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="9" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>723</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>724</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>725</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,7 +6235,7 @@
         <v>1103</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6243,7 +6249,7 @@
         <v>1103</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,12 +6263,12 @@
         <v>1103</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>55</v>
@@ -6271,7 +6277,7 @@
         <v>1103</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6285,7 +6291,7 @@
         <v>2203</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6299,7 +6305,7 @@
         <v>2203</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6313,7 +6319,7 @@
         <v>2203</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6327,7 +6333,7 @@
         <v>2203</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6341,7 +6347,7 @@
         <v>1103</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6352,13 +6358,13 @@
         <v>52</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>738</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6372,10 +6378,10 @@
         <v>2203</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>740</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6389,7 +6395,7 @@
         <v>2203</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6403,7 +6409,7 @@
         <v>1104</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,10 +6423,10 @@
         <v>2203</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6434,7 +6440,7 @@
         <v>1103</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6448,7 +6454,7 @@
         <v>1002</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6462,7 +6468,7 @@
         <v>1104</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6476,7 +6482,7 @@
         <v>1103</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6490,7 +6496,7 @@
         <v>1104</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,7 +6510,7 @@
         <v>1103</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6518,7 +6524,7 @@
         <v>1104</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6532,7 +6538,7 @@
         <v>1104</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6546,10 +6552,10 @@
         <v>1002</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6563,7 +6569,7 @@
         <v>1002</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6577,7 +6583,7 @@
         <v>1002</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,7 +6597,7 @@
         <v>1002</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6605,7 +6611,7 @@
         <v>1002</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6619,10 +6625,10 @@
         <v>2203</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6636,10 +6642,10 @@
         <v>2203</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6653,7 +6659,7 @@
         <v>2203</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6667,7 +6673,7 @@
         <v>1104</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6681,10 +6687,10 @@
         <v>2203</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6698,10 +6704,10 @@
         <v>1103</v>
       </c>
       <c r="D35" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>759</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,7 +6721,7 @@
         <v>1103</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,7 +6735,7 @@
         <v>1002</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,7 +6749,7 @@
         <v>1104</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,7 +6763,7 @@
         <v>1103</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,7 +6777,7 @@
         <v>1104</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6785,7 +6791,7 @@
         <v>1103</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,7 +6805,7 @@
         <v>1104</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,7 +6819,7 @@
         <v>1104</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,7 +6833,7 @@
         <v>1002</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,7 +6847,7 @@
         <v>1002</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6855,7 +6861,7 @@
         <v>1002</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,7 +6875,7 @@
         <v>1002</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6883,10 +6889,10 @@
         <v>1002</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6900,7 +6906,7 @@
         <v>1104</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6914,7 +6920,7 @@
         <v>1002</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -6936,7 +6942,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C1:N1 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6945,16 +6951,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7268,7 +7274,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>168</v>
@@ -7279,7 +7285,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>51</v>
@@ -7304,7 +7310,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="topLeft" activeCell="A20" activeCellId="1" sqref="C1:N1 A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7314,23 +7320,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>770</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7344,7 +7350,7 @@
         <v>1201</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7358,7 +7364,7 @@
         <v>1201</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7372,7 +7378,7 @@
         <v>336</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7386,7 +7392,7 @@
         <v>1201</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7400,7 +7406,7 @@
         <v>1201</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7414,7 +7420,7 @@
         <v>1201</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7428,7 +7434,7 @@
         <v>218</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7442,7 +7448,7 @@
         <v>2204</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7450,13 +7456,13 @@
         <v>342</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2204</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7470,7 +7476,7 @@
         <v>2001</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7484,7 +7490,7 @@
         <v>1201</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7498,7 +7504,7 @@
         <v>2001</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7512,7 +7518,7 @@
         <v>2001</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7526,7 +7532,7 @@
         <v>2001</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7540,7 +7546,7 @@
         <v>2001</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7554,7 +7560,7 @@
         <v>2204</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7568,77 +7574,77 @@
         <v>2204</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>787</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>611</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="H21" s="0" t="s">
         <v>789</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>790</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>791</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>793</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>793</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>795</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>796</v>
-      </c>
       <c r="H23" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>796</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>797</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>799</v>
-      </c>
       <c r="H24" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>799</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>801</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>802</v>
-      </c>
       <c r="G25" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7646,13 +7652,13 @@
         <v>300</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>802</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>803</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
         <v>804</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7663,10 +7669,10 @@
         <v>60</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -7688,7 +7694,7 @@
   <dimension ref="A2:L42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="C1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7701,34 +7707,34 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
+        <v>806</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>807</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>809</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>811</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>813</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>815</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7736,77 +7742,77 @@
         <v>1003</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>818</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>821</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>825</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1005</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>827</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>819</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>829</v>
-      </c>
       <c r="I4" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>823</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="K4" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>825</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="L5" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7814,16 +7820,16 @@
         <v>1004</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>833</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>834</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7831,13 +7837,13 @@
         <v>1203</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>837</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7845,7 +7851,7 @@
         <v>163</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7853,39 +7859,39 @@
         <v>166</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1003</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>842</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="L12" s="0" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7893,39 +7899,39 @@
         <v>1005</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>823</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>824</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="L13" s="0" t="s">
         <v>842</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>819</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>825</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="L13" s="0" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="L14" s="0" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7933,13 +7939,13 @@
         <v>1004</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>831</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>833</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7947,13 +7953,13 @@
         <v>1203</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>837</v>
-      </c>
       <c r="K16" s="0" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7966,45 +7972,45 @@
         <v>166</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1003</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>816</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>847</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>817</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="G20" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="K20" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="L20" s="0" t="s">
         <v>849</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>843</v>
-      </c>
-      <c r="L20" s="0" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,30 +8018,30 @@
         <v>1005</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E21" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>817</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>843</v>
-      </c>
       <c r="L21" s="0" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8043,19 +8049,19 @@
         <v>1004</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>852</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>853</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="J23" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="K23" s="0" t="s">
         <v>855</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8063,19 +8069,19 @@
         <v>1203</v>
       </c>
       <c r="D24" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>835</v>
+      </c>
+      <c r="G24" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="E24" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="J24" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="J24" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>859</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8083,7 +8089,7 @@
         <v>163</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8091,39 +8097,39 @@
         <v>166</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1003</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F28" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>848</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="J28" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>849</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>843</v>
-      </c>
       <c r="K28" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="L28" s="0" t="s">
         <v>823</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8131,39 +8137,39 @@
         <v>1005</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F29" s="0" t="s">
+        <v>841</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>850</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>825</v>
+      </c>
+      <c r="J29" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>851</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>843</v>
-      </c>
       <c r="K29" s="0" t="s">
+        <v>822</v>
+      </c>
+      <c r="L29" s="0" t="s">
         <v>823</v>
-      </c>
-      <c r="L29" s="0" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="L30" s="0" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8171,16 +8177,16 @@
         <v>1004</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>864</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>865</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>866</v>
-      </c>
       <c r="J31" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="K31" s="0" t="s">
         <v>855</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8188,22 +8194,22 @@
         <v>1203</v>
       </c>
       <c r="C32" s="0" t="s">
+        <v>856</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>866</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>844</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>857</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>867</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>845</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="J32" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="J32" s="0" t="s">
+      <c r="K32" s="0" t="s">
         <v>859</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8221,19 +8227,19 @@
         <v>1003</v>
       </c>
       <c r="D36" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>820</v>
-      </c>
       <c r="G36" s="0" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8241,30 +8247,30 @@
         <v>1005</v>
       </c>
       <c r="D37" s="0" t="s">
+        <v>818</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>819</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>820</v>
-      </c>
       <c r="G37" s="0" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B38" s="0" t="s">
+        <v>829</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>843</v>
+      </c>
+      <c r="L38" s="0" t="s">
         <v>830</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8272,10 +8278,10 @@
         <v>1004</v>
       </c>
       <c r="J39" s="0" t="s">
+        <v>854</v>
+      </c>
+      <c r="K39" s="0" t="s">
         <v>855</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8283,16 +8289,16 @@
         <v>1203</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G40" s="0" t="s">
+        <v>857</v>
+      </c>
+      <c r="J40" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="J40" s="0" t="s">
+      <c r="K40" s="0" t="s">
         <v>859</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8324,7 +8330,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
+      <selection pane="topLeft" activeCell="K6" activeCellId="1" sqref="C1:N1 K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8915,7 +8921,7 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+      <selection pane="topLeft" activeCell="E45" activeCellId="1" sqref="C1:N1 E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8925,31 +8931,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8994,10 +9000,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>869</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9006,21 +9012,21 @@
         <v>14</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="E18" s="0" t="s">
         <v>869</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="F26" s="0" t="s">
         <v>869</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9034,16 +9040,16 @@
         <v>55</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>869</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>870</v>
-      </c>
       <c r="E42" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -9065,7 +9071,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="C1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9641,7 +9647,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="1" sqref="C1:N1 G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10172,7 +10178,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
+      <selection pane="topLeft" activeCell="L3" activeCellId="1" sqref="C1:N1 L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10688,7 +10694,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="I20" activeCellId="1" sqref="C1:N1 I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11199,7 +11205,7 @@
   <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="C1:N1 C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13478,114 +13484,190 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>417</v>
+      </c>
       <c r="E1" s="9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>418</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>416</v>
+        <v>51</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>417</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>418</v>
+        <v>53</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>419</v>
+        <v>54</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>421</v>
+        <v>56</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>422</v>
+        <v>57</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>423</v>
+        <v>58</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>424</v>
+        <v>59</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>165</v>
+        <v>215</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="0" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>169</v>
@@ -13594,140 +13676,62 @@
         <v>170</v>
       </c>
       <c r="H5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="L5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K8" s="0" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F10" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K12" s="10" t="s">
+      <c r="L6" s="11" t="s">
         <v>262</v>
       </c>
     </row>
@@ -13750,7 +13754,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="1" sqref="C1:N1 B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13760,12 +13764,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E2" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13776,31 +13780,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14052,7 +14056,7 @@
         <v>68</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>71</v>
@@ -14209,7 +14213,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B26" s="9" t="n">
         <v>2201</v>
